--- a/contoh TC pemesanan tiket .xlsx
+++ b/contoh TC pemesanan tiket .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\QA Knitto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\QA Knitto\jawaban_test_qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B79CC62-BCC0-4252-9536-CBBF08C1BA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A7388-C3F5-43AF-9865-278C5AEA91DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -545,19 +545,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -570,12 +557,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,10 +805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -833,10 +827,10 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -855,10 +849,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -877,10 +871,10 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -899,10 +893,10 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="11"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -921,10 +915,10 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -937,36 +931,36 @@
       <c r="L6" s="2"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -982,35 +976,35 @@
       <c r="D9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
